--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="374">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Condition — Initial Impression</t>
+    <t>RS Condition — Initial Impression</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Initial impression per CSV mapping.</t>
+    <t>Enter the initial impression on the patient’s condition.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -676,6 +676,13 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="148006"/&gt;
+  &lt;display value="Preliminary diagnosis (qualifier value)"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -683,136 +690,6 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Condition.category.coding.id</t>
-  </si>
-  <si>
-    <t>Condition.category.coding.extension</t>
-  </si>
-  <si>
-    <t>Condition.category.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Condition.category.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Condition.category.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>148006</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Condition.category.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Preliminary diagnosis (qualifier value)</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Condition.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
   </si>
   <si>
     <t>Condition.category.text</t>
@@ -1644,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1653,8 +1530,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.3359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -3669,7 +3546,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
@@ -3711,7 +3588,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3732,10 +3609,10 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3746,10 +3623,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3769,19 +3646,23 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3829,7 +3710,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3841,7 +3722,7 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -3850,10 +3731,10 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -3862,26 +3743,26 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -3890,16 +3771,16 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3925,73 +3806,73 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4001,7 +3882,7 @@
         <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4010,26 +3891,24 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>80</v>
@@ -4047,13 +3926,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4071,7 +3950,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4086,30 +3965,30 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4129,20 +4008,18 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4191,7 +4068,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4203,7 +4080,7 @@
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4212,10 +4089,10 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4226,21 +4103,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4249,21 +4126,21 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4272,7 +4149,7 @@
         <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>80</v>
@@ -4299,31 +4176,31 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4332,10 +4209,10 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4346,10 +4223,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4360,7 +4237,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4372,17 +4249,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4392,7 +4271,7 @@
         <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>80</v>
@@ -4431,13 +4310,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4452,10 +4331,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4464,12 +4343,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4483,7 +4362,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
@@ -4492,19 +4371,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4553,7 +4432,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4574,10 +4453,10 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4588,10 +4467,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4602,7 +4481,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4614,20 +4493,18 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4651,13 +4528,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4675,13 +4552,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4693,35 +4570,35 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>92</v>
@@ -4733,21 +4610,21 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4771,13 +4648,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4795,10 +4672,10 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>92</v>
@@ -4810,34 +4687,34 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4856,18 +4733,18 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4891,13 +4768,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -4915,7 +4792,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -4930,30 +4807,30 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4973,18 +4850,20 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5033,7 +4912,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5045,22 +4924,22 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5068,21 +4947,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5094,16 +4973,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5141,31 +5020,31 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5177,10 +5056,10 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -5188,10 +5067,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5202,7 +5081,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5214,20 +5093,16 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5275,13 +5150,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5296,24 +5171,24 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5327,7 +5202,7 @@
         <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5336,20 +5211,16 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5397,7 +5268,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5418,13 +5289,13 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5432,10 +5303,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5446,7 +5317,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5458,17 +5329,15 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5493,13 +5362,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5517,13 +5386,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5535,61 +5404,59 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5637,45 +5504,45 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>318</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5689,26 +5556,24 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5757,7 +5622,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5769,22 +5634,22 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>319</v>
+        <v>198</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -5799,14 +5664,14 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5815,19 +5680,19 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>325</v>
+        <v>141</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5877,34 +5742,34 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>328</v>
+        <v>198</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -5912,44 +5777,46 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5997,19 +5864,19 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6021,10 +5888,10 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>335</v>
+        <v>135</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -6032,10 +5899,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6055,16 +5922,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6091,13 +5958,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6115,7 +5982,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6124,7 +5991,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6133,16 +6000,16 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>341</v>
+        <v>169</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6150,10 +6017,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6164,7 +6031,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6173,16 +6040,16 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6233,16 +6100,16 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6257,10 +6124,10 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -6268,10 +6135,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6291,16 +6158,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6327,13 +6194,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6351,7 +6218,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6372,13 +6239,13 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -6386,10 +6253,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6412,15 +6279,17 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6469,7 +6338,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6481,7 +6350,7 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6493,7 +6362,7 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6504,10 +6373,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6622,10 +6491,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6742,14 +6611,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6771,10 +6640,10 @@
         <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>141</v>
@@ -6829,7 +6698,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6864,10 +6733,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6878,7 +6747,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6887,16 +6756,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6923,13 +6792,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -6947,34 +6816,34 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -6982,10 +6851,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7005,16 +6874,16 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7065,7 +6934,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7074,7 +6943,7 @@
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>104</v>
@@ -7089,21 +6958,21 @@
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7114,10 +6983,10 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7126,13 +6995,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>159</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7159,13 +7028,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7183,13 +7052,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7198,860 +7067,26 @@
         <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP53" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP53">
+  <autoFilter ref="A1:AP46">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8061,7 +7096,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -679,7 +679,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
   &lt;code value="148006"/&gt;
-  &lt;display value="Preliminary diagnosis (qualifier value)"/&gt;
+  &lt;display value="Preliminary diagnosis"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
@@ -3546,10 +3546,10 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S17" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -678,6 +678,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="148006"/&gt;
   &lt;display value="Preliminary diagnosis"/&gt;
 &lt;/valueCoding&gt;</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition-initial-impression.xlsx
+++ b/StructureDefinition-rs-condition-initial-impression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
